--- a/biology/Botanique/Impatiens_gongolana/Impatiens_gongolana.xlsx
+++ b/biology/Botanique/Impatiens_gongolana/Impatiens_gongolana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens gongolana N.Hallé est une espèce de plantes à fleurs de la famille des Balsaminaceae et du genre Impatiens, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique gongolana fait référence à la N'Gongolane, le cours d'eau auprès duquel l'holotype a été trouvé par Nicolas Hallé, dans les monts de Cristal, au sud de Mela[2], le 11 août 1959[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique gongolana fait référence à la N'Gongolane, le cours d'eau auprès duquel l'holotype a été trouvé par Nicolas Hallé, dans les monts de Cristal, au sud de Mela, le 11 août 1959.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe pérenne pouvant atteindre 35 cm de hauteur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe pérenne pouvant atteindre 35 cm de hauteur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Récoltée à plusieurs reprises dans les monts de Cristal, elle a d'abord été considérée comme endémique du Gabon[2], mais l'espèce a été observée également au parc national de Campo-Ma'an au sud du Cameroun[4]. Comme elle est relativement rare, circonscrite à un aire réduite, elle reste considérée comme « en danger ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Récoltée à plusieurs reprises dans les monts de Cristal, elle a d'abord été considérée comme endémique du Gabon, mais l'espèce a été observée également au parc national de Campo-Ma'an au sud du Cameroun. Comme elle est relativement rare, circonscrite à un aire réduite, elle reste considérée comme « en danger ».
 </t>
         </is>
       </c>
